--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.595443411611249</v>
+        <v>18.904217</v>
       </c>
       <c r="H2">
-        <v>8.595443411611249</v>
+        <v>56.712651</v>
       </c>
       <c r="I2">
-        <v>0.2070986343534677</v>
+        <v>0.3376032603366536</v>
       </c>
       <c r="J2">
-        <v>0.2070986343534677</v>
+        <v>0.3376032603366536</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.285734787949522</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N2">
-        <v>0.285734787949522</v>
+        <v>1.183099</v>
       </c>
       <c r="O2">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P2">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q2">
-        <v>2.456017200548856</v>
+        <v>7.455186742827667</v>
       </c>
       <c r="R2">
-        <v>2.456017200548856</v>
+        <v>67.096680685449</v>
       </c>
       <c r="S2">
-        <v>0.07197632199803522</v>
+        <v>0.1327891506470384</v>
       </c>
       <c r="T2">
-        <v>0.07197632199803522</v>
+        <v>0.1327891506470384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.595443411611249</v>
+        <v>18.904217</v>
       </c>
       <c r="H3">
-        <v>8.595443411611249</v>
+        <v>56.712651</v>
       </c>
       <c r="I3">
-        <v>0.2070986343534677</v>
+        <v>0.3376032603366536</v>
       </c>
       <c r="J3">
-        <v>0.2070986343534677</v>
+        <v>0.3376032603366536</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.536414534618517</v>
+        <v>0.043492</v>
       </c>
       <c r="N3">
-        <v>0.536414534618517</v>
+        <v>0.130476</v>
       </c>
       <c r="O3">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P3">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q3">
-        <v>4.610720777479246</v>
+        <v>0.822182205764</v>
       </c>
       <c r="R3">
-        <v>4.610720777479246</v>
+        <v>7.399639851876</v>
       </c>
       <c r="S3">
-        <v>0.1351223123554325</v>
+        <v>0.01464441878475342</v>
       </c>
       <c r="T3">
-        <v>0.1351223123554325</v>
+        <v>0.01464441878475342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.2666650183812</v>
+        <v>18.904217</v>
       </c>
       <c r="H4">
-        <v>21.2666650183812</v>
+        <v>56.712651</v>
       </c>
       <c r="I4">
-        <v>0.5123990784012163</v>
+        <v>0.3376032603366536</v>
       </c>
       <c r="J4">
-        <v>0.5123990784012163</v>
+        <v>0.3376032603366536</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.285734787949522</v>
+        <v>0.564779</v>
       </c>
       <c r="N4">
-        <v>0.285734787949522</v>
+        <v>1.694337</v>
       </c>
       <c r="O4">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P4">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q4">
-        <v>6.07662601942067</v>
+        <v>10.676704773043</v>
       </c>
       <c r="R4">
-        <v>6.07662601942067</v>
+        <v>96.09034295738699</v>
       </c>
       <c r="S4">
-        <v>0.1780822996425756</v>
+        <v>0.1901696909048618</v>
       </c>
       <c r="T4">
-        <v>0.1780822996425756</v>
+        <v>0.1901696909048618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.2666650183812</v>
+        <v>21.42159766666667</v>
       </c>
       <c r="H5">
-        <v>21.2666650183812</v>
+        <v>64.264793</v>
       </c>
       <c r="I5">
-        <v>0.5123990784012163</v>
+        <v>0.3825602093906729</v>
       </c>
       <c r="J5">
-        <v>0.5123990784012163</v>
+        <v>0.3825602093906729</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.536414534618517</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N5">
-        <v>0.536414534618517</v>
+        <v>1.183099</v>
       </c>
       <c r="O5">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P5">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q5">
-        <v>11.40774821872285</v>
+        <v>8.447956925945224</v>
       </c>
       <c r="R5">
-        <v>11.40774821872285</v>
+        <v>76.031612333507</v>
       </c>
       <c r="S5">
-        <v>0.3343167787586407</v>
+        <v>0.1504720221768109</v>
       </c>
       <c r="T5">
-        <v>0.3343167787586407</v>
+        <v>0.1504720221768109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.633080487939173</v>
+        <v>21.42159766666667</v>
       </c>
       <c r="H6">
-        <v>0.633080487939173</v>
+        <v>64.264793</v>
       </c>
       <c r="I6">
-        <v>0.01525344280795546</v>
+        <v>0.3825602093906729</v>
       </c>
       <c r="J6">
-        <v>0.01525344280795546</v>
+        <v>0.3825602093906729</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.285734787949522</v>
+        <v>0.043492</v>
       </c>
       <c r="N6">
-        <v>0.285734787949522</v>
+        <v>0.130476</v>
       </c>
       <c r="O6">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P6">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q6">
-        <v>0.1808931189762795</v>
+        <v>0.9316681257186668</v>
       </c>
       <c r="R6">
-        <v>0.1808931189762795</v>
+        <v>8.385013131468</v>
       </c>
       <c r="S6">
-        <v>0.005301274508890228</v>
+        <v>0.01659454328466306</v>
       </c>
       <c r="T6">
-        <v>0.005301274508890228</v>
+        <v>0.01659454328466306</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.633080487939173</v>
+        <v>21.42159766666667</v>
       </c>
       <c r="H7">
-        <v>0.633080487939173</v>
+        <v>64.264793</v>
       </c>
       <c r="I7">
-        <v>0.01525344280795546</v>
+        <v>0.3825602093906729</v>
       </c>
       <c r="J7">
-        <v>0.01525344280795546</v>
+        <v>0.3825602093906729</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.536414534618517</v>
+        <v>0.564779</v>
       </c>
       <c r="N7">
-        <v>0.536414534618517</v>
+        <v>1.694337</v>
       </c>
       <c r="O7">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P7">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q7">
-        <v>0.3395935753139551</v>
+        <v>12.09846850858233</v>
       </c>
       <c r="R7">
-        <v>0.3395935753139551</v>
+        <v>108.886216577241</v>
       </c>
       <c r="S7">
-        <v>0.00995216829906523</v>
+        <v>0.2154936439291989</v>
       </c>
       <c r="T7">
-        <v>0.00995216829906523</v>
+        <v>0.2154936439291989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.350508394813844</v>
+        <v>0.6843913333333332</v>
       </c>
       <c r="H8">
-        <v>0.350508394813844</v>
+        <v>2.053174</v>
       </c>
       <c r="I8">
-        <v>0.008445150112595057</v>
+        <v>0.01222228593120163</v>
       </c>
       <c r="J8">
-        <v>0.008445150112595057</v>
+        <v>0.01222228593120164</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.285734787949522</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N8">
-        <v>0.285734787949522</v>
+        <v>1.183099</v>
       </c>
       <c r="O8">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P8">
-        <v>0.3475460966835198</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q8">
-        <v>0.1001524418666611</v>
+        <v>0.2699009006917777</v>
       </c>
       <c r="R8">
-        <v>0.1001524418666611</v>
+        <v>2.429108106226</v>
       </c>
       <c r="S8">
-        <v>0.0029350789575388</v>
+        <v>0.004807379425634368</v>
       </c>
       <c r="T8">
-        <v>0.0029350789575388</v>
+        <v>0.004807379425634369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.350508394813844</v>
+        <v>0.6843913333333332</v>
       </c>
       <c r="H9">
-        <v>0.350508394813844</v>
+        <v>2.053174</v>
       </c>
       <c r="I9">
-        <v>0.008445150112595057</v>
+        <v>0.01222228593120163</v>
       </c>
       <c r="J9">
-        <v>0.008445150112595057</v>
+        <v>0.01222228593120164</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.536414534618517</v>
+        <v>0.043492</v>
       </c>
       <c r="N9">
-        <v>0.536414534618517</v>
+        <v>0.130476</v>
       </c>
       <c r="O9">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P9">
-        <v>0.6524539033164801</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q9">
-        <v>0.1880177974839515</v>
+        <v>0.02976554786933333</v>
       </c>
       <c r="R9">
-        <v>0.1880177974839515</v>
+        <v>0.267889930824</v>
       </c>
       <c r="S9">
-        <v>0.005510071155056256</v>
+        <v>0.0005301734156981536</v>
       </c>
       <c r="T9">
-        <v>0.005510071155056256</v>
+        <v>0.0005301734156981536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.514299365826824</v>
+        <v>0.6843913333333332</v>
       </c>
       <c r="H10">
-        <v>0.514299365826824</v>
+        <v>2.053174</v>
       </c>
       <c r="I10">
-        <v>0.0123915301644251</v>
+        <v>0.01222228593120163</v>
       </c>
       <c r="J10">
-        <v>0.0123915301644251</v>
+        <v>0.01222228593120164</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.285734787949522</v>
+        <v>0.564779</v>
       </c>
       <c r="N10">
-        <v>0.285734787949522</v>
+        <v>1.694337</v>
       </c>
       <c r="O10">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P10">
-        <v>0.3475460966835198</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q10">
-        <v>0.1469532202371012</v>
+        <v>0.3865298528486666</v>
       </c>
       <c r="R10">
-        <v>0.1469532202371012</v>
+        <v>3.478768675638</v>
       </c>
       <c r="S10">
-        <v>0.004306627940582037</v>
+        <v>0.006884733089869114</v>
       </c>
       <c r="T10">
-        <v>0.004306627940582037</v>
+        <v>0.006884733089869114</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.514299365826824</v>
+        <v>0.4048903333333334</v>
       </c>
       <c r="H11">
-        <v>0.514299365826824</v>
+        <v>1.214671</v>
       </c>
       <c r="I11">
-        <v>0.0123915301644251</v>
+        <v>0.007230783301531494</v>
       </c>
       <c r="J11">
-        <v>0.0123915301644251</v>
+        <v>0.007230783301531494</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.536414534618517</v>
+        <v>0.3943663333333334</v>
       </c>
       <c r="N11">
-        <v>0.536414534618517</v>
+        <v>1.183099</v>
       </c>
       <c r="O11">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="P11">
-        <v>0.6524539033164801</v>
+        <v>0.393328993667368</v>
       </c>
       <c r="Q11">
-        <v>0.2758776549745942</v>
+        <v>0.1596751161587778</v>
       </c>
       <c r="R11">
-        <v>0.2758776549745942</v>
+        <v>1.437076045429</v>
       </c>
       <c r="S11">
-        <v>0.008084902223843058</v>
+        <v>0.002844076719418191</v>
       </c>
       <c r="T11">
-        <v>0.008084902223843058</v>
+        <v>0.002844076719418191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.1441080609157</v>
+        <v>0.4048903333333334</v>
       </c>
       <c r="H12">
-        <v>10.1441080609157</v>
+        <v>1.214671</v>
       </c>
       <c r="I12">
-        <v>0.2444121641603404</v>
+        <v>0.007230783301531494</v>
       </c>
       <c r="J12">
-        <v>0.2444121641603404</v>
+        <v>0.007230783301531494</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.285734787949522</v>
+        <v>0.043492</v>
       </c>
       <c r="N12">
-        <v>0.285734787949522</v>
+        <v>0.130476</v>
       </c>
       <c r="O12">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="P12">
-        <v>0.3475460966835198</v>
+        <v>0.04337759881273123</v>
       </c>
       <c r="Q12">
-        <v>2.898524565722784</v>
+        <v>0.01760949037733334</v>
       </c>
       <c r="R12">
-        <v>2.898524565722784</v>
+        <v>0.158485413396</v>
       </c>
       <c r="S12">
-        <v>0.084944493635898</v>
+        <v>0.0003136540171556293</v>
       </c>
       <c r="T12">
-        <v>0.084944493635898</v>
+        <v>0.0003136540171556293</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.1441080609157</v>
+        <v>0.4048903333333334</v>
       </c>
       <c r="H13">
-        <v>10.1441080609157</v>
+        <v>1.214671</v>
       </c>
       <c r="I13">
-        <v>0.2444121641603404</v>
+        <v>0.007230783301531494</v>
       </c>
       <c r="J13">
-        <v>0.2444121641603404</v>
+        <v>0.007230783301531494</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.536414534618517</v>
+        <v>0.564779</v>
       </c>
       <c r="N13">
-        <v>0.536414534618517</v>
+        <v>1.694337</v>
       </c>
       <c r="O13">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="P13">
-        <v>0.6524539033164801</v>
+        <v>0.5632934075199009</v>
       </c>
       <c r="Q13">
-        <v>5.441447004616042</v>
+        <v>0.2286735575696667</v>
       </c>
       <c r="R13">
-        <v>5.441447004616042</v>
+        <v>2.058062018127</v>
       </c>
       <c r="S13">
-        <v>0.1594676705244424</v>
+        <v>0.004073052564957674</v>
       </c>
       <c r="T13">
-        <v>0.1594676705244424</v>
+        <v>0.004073052564957674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.525581</v>
+      </c>
+      <c r="H14">
+        <v>1.576743</v>
+      </c>
+      <c r="I14">
+        <v>0.009386152262799286</v>
+      </c>
+      <c r="J14">
+        <v>0.009386152262799286</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3943663333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.183099</v>
+      </c>
+      <c r="O14">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="P14">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="Q14">
+        <v>0.2072714518396667</v>
+      </c>
+      <c r="R14">
+        <v>1.865443066557</v>
+      </c>
+      <c r="S14">
+        <v>0.003691845823935532</v>
+      </c>
+      <c r="T14">
+        <v>0.003691845823935532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.525581</v>
+      </c>
+      <c r="H15">
+        <v>1.576743</v>
+      </c>
+      <c r="I15">
+        <v>0.009386152262799286</v>
+      </c>
+      <c r="J15">
+        <v>0.009386152262799286</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.043492</v>
+      </c>
+      <c r="N15">
+        <v>0.130476</v>
+      </c>
+      <c r="O15">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="P15">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="Q15">
+        <v>0.022858568852</v>
+      </c>
+      <c r="R15">
+        <v>0.205727119668</v>
+      </c>
+      <c r="S15">
+        <v>0.0004071487472509168</v>
+      </c>
+      <c r="T15">
+        <v>0.0004071487472509168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.525581</v>
+      </c>
+      <c r="H16">
+        <v>1.576743</v>
+      </c>
+      <c r="I16">
+        <v>0.009386152262799286</v>
+      </c>
+      <c r="J16">
+        <v>0.009386152262799286</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.564779</v>
+      </c>
+      <c r="N16">
+        <v>1.694337</v>
+      </c>
+      <c r="O16">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="P16">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="Q16">
+        <v>0.296837111599</v>
+      </c>
+      <c r="R16">
+        <v>2.671534004391</v>
+      </c>
+      <c r="S16">
+        <v>0.005287157691612838</v>
+      </c>
+      <c r="T16">
+        <v>0.005287157691612838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>14.05468533333333</v>
+      </c>
+      <c r="H17">
+        <v>42.164056</v>
+      </c>
+      <c r="I17">
+        <v>0.2509973087771411</v>
+      </c>
+      <c r="J17">
+        <v>0.2509973087771412</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3943663333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.183099</v>
+      </c>
+      <c r="O17">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="P17">
+        <v>0.393328993667368</v>
+      </c>
+      <c r="Q17">
+        <v>5.542694721060445</v>
+      </c>
+      <c r="R17">
+        <v>49.88425248954401</v>
+      </c>
+      <c r="S17">
+        <v>0.09872451887453053</v>
+      </c>
+      <c r="T17">
+        <v>0.09872451887453056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14.05468533333333</v>
+      </c>
+      <c r="H18">
+        <v>42.164056</v>
+      </c>
+      <c r="I18">
+        <v>0.2509973087771411</v>
+      </c>
+      <c r="J18">
+        <v>0.2509973087771412</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.043492</v>
+      </c>
+      <c r="N18">
+        <v>0.130476</v>
+      </c>
+      <c r="O18">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="P18">
+        <v>0.04337759881273123</v>
+      </c>
+      <c r="Q18">
+        <v>0.6112663745173333</v>
+      </c>
+      <c r="R18">
+        <v>5.501397370656001</v>
+      </c>
+      <c r="S18">
+        <v>0.01088766056321005</v>
+      </c>
+      <c r="T18">
+        <v>0.01088766056321005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>14.05468533333333</v>
+      </c>
+      <c r="H19">
+        <v>42.164056</v>
+      </c>
+      <c r="I19">
+        <v>0.2509973087771411</v>
+      </c>
+      <c r="J19">
+        <v>0.2509973087771412</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.564779</v>
+      </c>
+      <c r="N19">
+        <v>1.694337</v>
+      </c>
+      <c r="O19">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="P19">
+        <v>0.5632934075199009</v>
+      </c>
+      <c r="Q19">
+        <v>7.937791127874667</v>
+      </c>
+      <c r="R19">
+        <v>71.440120150872</v>
+      </c>
+      <c r="S19">
+        <v>0.1413851293394005</v>
+      </c>
+      <c r="T19">
+        <v>0.1413851293394006</v>
       </c>
     </row>
   </sheetData>
